--- a/My project/Luban/Config/Datas/__beans__.xlsx
+++ b/My project/Luban/Config/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46125649-044F-43A2-A26C-716475D94A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E33F7-6E5C-4082-9FA0-D708DADDC82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27330" yWindow="10110" windowWidth="28800" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13455" yWindow="2700" windowWidth="28800" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -115,6 +115,42 @@
   </si>
   <si>
     <t>数量相关系数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyAction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -505,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,6 +677,36 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -648,8 +714,12 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
@@ -660,8 +730,12 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
@@ -672,8 +746,12 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -684,8 +762,12 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>

--- a/My project/Luban/Config/Datas/__beans__.xlsx
+++ b/My project/Luban/Config/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E33F7-6E5C-4082-9FA0-D708DADDC82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F9DFF1-9BD5-4ED6-BDA4-787FEC2B332D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="2700" windowWidth="28800" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28740" yWindow="6915" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -134,14 +134,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Attack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Magic</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -151,6 +143,22 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTarget</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackTarget</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -685,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>25</v>
@@ -715,10 +723,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -731,7 +739,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>25</v>
@@ -747,7 +755,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>25</v>
@@ -763,13 +771,21 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
